--- a/doc/02_specification/quotation.xlsx
+++ b/doc/02_specification/quotation.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="32100" windowHeight="25200"/>
   </bookViews>
   <sheets>
     <sheet name="崇明发现-派发-解决问题三方系统报价表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>对象</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -220,27 +225,111 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>服务器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>linux CentOs7.0 64位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>阿里云ESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>总报价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器组件描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格(元/年)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港B区机房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4GB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统磁盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据磁盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15G高效云盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200G高效云盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载硬盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5M带宽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广域网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络适配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -249,10 +338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +388,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -336,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -407,7 +512,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,7 +525,7 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,20 +537,20 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -460,7 +565,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -472,10 +577,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -484,7 +589,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -500,7 +605,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -512,7 +617,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -523,14 +628,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,25 +644,25 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -567,7 +672,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -580,11 +685,11 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +699,10 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +712,10 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,7 +727,7 @@
         <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -644,8 +749,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -656,14 +774,48 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -728,16 +880,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="5" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="5" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="5" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="5" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,13 +901,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="6" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="6" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,14 +970,95 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - 着色 1" xfId="2" builtinId="30"/>
-    <cellStyle name="20% - 着色 5" xfId="3" builtinId="46"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="40">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="3" builtinId="46"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="着色 5" xfId="5" builtinId="45"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="强调文字颜色 5" xfId="5" builtinId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -886,7 +1116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,7 +1151,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1130,24 +1360,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G27"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="116.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="116.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="25" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
@@ -1167,11 +1397,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:7" ht="25" customHeight="1">
+      <c r="B4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1187,9 +1417,9 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="38"/>
-      <c r="C5" s="45"/>
+    <row r="5" spans="2:7" ht="25" customHeight="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1203,9 +1433,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="38"/>
-      <c r="C6" s="45"/>
+    <row r="6" spans="2:7" ht="25" customHeight="1">
+      <c r="B6" s="37"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1219,9 +1449,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="39"/>
-      <c r="C7" s="46"/>
+    <row r="7" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B7" s="38"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="9" t="s">
         <v>45</v>
       </c>
@@ -1235,11 +1465,11 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:7" ht="25" customHeight="1">
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1255,9 +1485,9 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="48"/>
+    <row r="9" spans="2:7" ht="25" customHeight="1">
+      <c r="B9" s="40"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1271,12 +1501,12 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
-      <c r="C10" s="49" t="s">
+    <row r="10" spans="2:7" ht="25" customHeight="1">
+      <c r="B10" s="40"/>
+      <c r="C10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1289,10 +1519,10 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="41"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="33"/>
+    <row r="11" spans="2:7" ht="25" customHeight="1">
+      <c r="B11" s="40"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1303,10 +1533,10 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="34"/>
+    <row r="12" spans="2:7" ht="25" customHeight="1">
+      <c r="B12" s="40"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1547,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="41"/>
-      <c r="C13" s="50"/>
+    <row r="13" spans="2:7" ht="25" customHeight="1">
+      <c r="B13" s="40"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1333,9 +1563,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="41"/>
-      <c r="C14" s="50"/>
+    <row r="14" spans="2:7" ht="25" customHeight="1">
+      <c r="B14" s="40"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1349,9 +1579,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="41"/>
-      <c r="C15" s="48"/>
+    <row r="15" spans="2:7" ht="25" customHeight="1">
+      <c r="B15" s="40"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1365,8 +1595,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
+    <row r="16" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B16" s="41"/>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
@@ -1383,11 +1613,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="2:7" ht="25" customHeight="1">
+      <c r="B17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1403,9 +1633,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="39"/>
-      <c r="C18" s="46"/>
+    <row r="18" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B18" s="38"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="9" t="s">
         <v>38</v>
       </c>
@@ -1419,11 +1649,11 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40" t="s">
+    <row r="19" spans="2:7" ht="25" customHeight="1">
+      <c r="B19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1439,9 +1669,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="52"/>
+    <row r="20" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B20" s="41"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
@@ -1455,14 +1685,14 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="16" t="s">
         <v>50</v>
       </c>
@@ -1470,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="25">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="25" customHeight="1">
       <c r="E22" s="21" t="s">
         <v>49</v>
       </c>
@@ -1481,45 +1711,171 @@
         <v>30</v>
       </c>
       <c r="G22" s="29">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>22030</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="25" customHeight="1" thickBot="1">
       <c r="E23" s="2"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="18" t="s">
+    <row r="24" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D24" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="25" customHeight="1">
+      <c r="D25" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F25" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="25" customHeight="1">
+      <c r="D26" s="54"/>
+      <c r="E26" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="25" customHeight="1">
+      <c r="D27" s="54"/>
+      <c r="E27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="22">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="25" customHeight="1">
+      <c r="D28" s="54"/>
+      <c r="E28" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="25" customHeight="1">
+      <c r="D29" s="54"/>
+      <c r="E29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="25" customHeight="1">
+      <c r="D30" s="54"/>
+      <c r="E30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D31" s="56"/>
+      <c r="E31" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="25" customHeight="1">
+      <c r="D32" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="25" customHeight="1">
+      <c r="D33" s="55"/>
+      <c r="E33" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D34" s="56"/>
+      <c r="E34" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="25" customHeight="1">
+      <c r="F35" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="53">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="25" customHeight="1">
+      <c r="F37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="30">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="31">
+      <c r="G37" s="30">
         <v>30000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D32:D34"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B4:B7"/>
@@ -1534,6 +1890,11 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/02_specification/quotation.xlsx
+++ b/doc/02_specification/quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="32100" windowHeight="25200"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="崇明发现-派发-解决问题三方系统报价表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>对象</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -229,14 +229,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>总报价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器组件描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>组件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -330,6 +322,22 @@
   </si>
   <si>
     <t>磁盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总报价：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -716,21 +724,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +744,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="medium">
         <color auto="1"/>
@@ -762,8 +755,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -814,8 +855,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -898,15 +955,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -970,55 +1059,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="56">
     <cellStyle name="20% - 强调文字颜色 1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="3" builtinId="46"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -1038,6 +1104,14 @@
     <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -1055,6 +1129,14 @@
     <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
@@ -1360,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G37"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0"/>
@@ -1398,10 +1480,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="25" customHeight="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1418,8 +1500,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="25" customHeight="1">
-      <c r="B5" s="37"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1434,8 +1516,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="25" customHeight="1">
-      <c r="B6" s="37"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1450,8 +1532,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="9" t="s">
         <v>45</v>
       </c>
@@ -1466,10 +1548,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="25" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1486,8 +1568,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="25" customHeight="1">
-      <c r="B9" s="40"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1502,11 +1584,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="25" customHeight="1">
-      <c r="B10" s="40"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="43" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1520,9 +1602,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="25" customHeight="1">
-      <c r="B11" s="40"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1534,9 +1616,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="25" customHeight="1">
-      <c r="B12" s="40"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1548,8 +1630,8 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="25" customHeight="1">
-      <c r="B13" s="40"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1564,8 +1646,8 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="25" customHeight="1">
-      <c r="B14" s="40"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1580,8 +1662,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="25" customHeight="1">
-      <c r="B15" s="40"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1596,7 +1678,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B16" s="41"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
@@ -1614,10 +1696,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="25" customHeight="1">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="62" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1634,8 +1716,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="9" t="s">
         <v>38</v>
       </c>
@@ -1650,10 +1732,10 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="25" customHeight="1">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="58" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1670,8 +1752,8 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
@@ -1689,10 +1771,10 @@
       <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="16" t="s">
         <v>50</v>
       </c>
@@ -1707,175 +1789,180 @@
       <c r="E22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="64">
         <v>30</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="65">
         <v>22030</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="25" customHeight="1" thickBot="1">
-      <c r="E23" s="2"/>
-      <c r="F23"/>
-    </row>
+    <row r="23" spans="2:7" ht="25" customHeight="1" thickBot="1"/>
     <row r="24" spans="2:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+    </row>
+    <row r="25" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D25" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="25" customHeight="1">
+      <c r="D26" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="25" customHeight="1">
+      <c r="D27" s="40"/>
+      <c r="E27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="22">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="25" customHeight="1">
+      <c r="D28" s="40"/>
+      <c r="E28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="25" customHeight="1">
+      <c r="D29" s="40"/>
+      <c r="E29" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="25" customHeight="1">
+      <c r="D30" s="40"/>
+      <c r="E30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="25" customHeight="1">
+      <c r="D31" s="40"/>
+      <c r="E31" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D32" s="41"/>
+      <c r="E32" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="25" customHeight="1">
+      <c r="D33" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="25" customHeight="1">
-      <c r="D25" s="64" t="s">
+      <c r="F33" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="25" customHeight="1">
+      <c r="D34" s="42"/>
+      <c r="E34" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="25" customHeight="1">
-      <c r="D26" s="54"/>
-      <c r="E26" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="22">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="25" customHeight="1">
-      <c r="D27" s="54"/>
-      <c r="E27" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="22">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="25" customHeight="1">
-      <c r="D28" s="54"/>
-      <c r="E28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="22">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="25" customHeight="1">
-      <c r="D29" s="54"/>
-      <c r="E29" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="22">
+      <c r="F34" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D35" s="41"/>
+      <c r="E35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="23">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="25" customHeight="1">
-      <c r="D30" s="54"/>
-      <c r="E30" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="22">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D31" s="56"/>
-      <c r="E31" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="23">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="25" customHeight="1">
-      <c r="D32" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="24">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="25" customHeight="1">
-      <c r="D33" s="55"/>
-      <c r="E33" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="22">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D34" s="56"/>
-      <c r="E34" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="25" customHeight="1">
-      <c r="F35" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="53">
+    <row r="36" spans="4:7" ht="25" customHeight="1">
+      <c r="F36" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="30">
         <v>7970</v>
       </c>
     </row>
-    <row r="37" spans="4:7" ht="25" customHeight="1">
-      <c r="F37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="30">
+    <row r="38" spans="4:7" ht="25" customHeight="1">
+      <c r="F38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="28">
         <v>30000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D32:D34"/>
+  <mergeCells count="14">
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="D33:D35"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="B4:B7"/>
@@ -1887,6 +1974,7 @@
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
